--- a/Data/Weather Data/R50.xlsx
+++ b/Data/Weather Data/R50.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/FOOD/FOOD-Labs/BoorWiedmannLab/rtl72_Renee Lee/2020 USDA OREI/OREI Objective 1/Weather Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luxma\OneDrive\Documents\GitHub\OREI_ML_Inference\Data\Weather Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDD86AA-F77B-7243-B1A4-059BE5AC2476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FF5507-2C7B-43FD-89B4-63F4D2883ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="19800" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2025" windowWidth="25290" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="111">
   <si>
     <t>name</t>
   </si>
@@ -419,9 +419,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -459,9 +459,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -494,26 +494,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -546,26 +529,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -739,15 +705,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH25"/>
+  <dimension ref="A1:AH21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,7 +820,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -949,7 +918,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1047,7 +1016,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1145,7 +1114,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1240,7 +1209,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1335,7 +1304,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1430,7 +1399,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1525,7 +1494,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1620,7 +1589,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1715,7 +1684,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1810,7 +1779,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1908,7 +1877,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2003,7 +1972,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2011,79 +1980,85 @@
         <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D14">
-        <v>14.7</v>
+        <v>22.9</v>
       </c>
       <c r="E14">
+        <v>6.5</v>
+      </c>
+      <c r="F14">
+        <v>14.9</v>
+      </c>
+      <c r="G14">
+        <v>22.9</v>
+      </c>
+      <c r="H14">
+        <v>6.5</v>
+      </c>
+      <c r="I14">
+        <v>14.8</v>
+      </c>
+      <c r="J14">
+        <v>5.4</v>
+      </c>
+      <c r="K14">
+        <v>57</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>32.4</v>
+      </c>
+      <c r="S14">
+        <v>21.7</v>
+      </c>
+      <c r="T14">
+        <v>123.4</v>
+      </c>
+      <c r="U14">
+        <v>1018.7</v>
+      </c>
+      <c r="V14">
+        <v>23.1</v>
+      </c>
+      <c r="W14">
+        <v>34.5</v>
+      </c>
+      <c r="X14">
+        <v>188.3</v>
+      </c>
+      <c r="Y14">
+        <v>16.2</v>
+      </c>
+      <c r="Z14">
+        <v>7</v>
+      </c>
+      <c r="AA14">
         <v>10</v>
       </c>
-      <c r="F14">
-        <v>11.6</v>
-      </c>
-      <c r="G14">
-        <v>14.7</v>
-      </c>
-      <c r="H14">
-        <v>10</v>
-      </c>
-      <c r="I14">
-        <v>11.6</v>
-      </c>
-      <c r="J14">
-        <v>10.9</v>
-      </c>
-      <c r="K14">
-        <v>95.7</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>14.1</v>
-      </c>
-      <c r="T14">
-        <v>303.60000000000002</v>
-      </c>
-      <c r="U14">
-        <v>1022.4</v>
-      </c>
-      <c r="V14">
-        <v>85.8</v>
-      </c>
-      <c r="W14">
-        <v>3</v>
-      </c>
-      <c r="X14">
-        <v>64.5</v>
-      </c>
-      <c r="Y14">
-        <v>5.6</v>
-      </c>
-      <c r="Z14">
-        <v>4</v>
-      </c>
       <c r="AB14" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="AC14" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="AD14">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AE14" t="s">
         <v>44</v>
@@ -2098,7 +2073,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -2106,40 +2081,43 @@
         <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D15">
-        <v>13.1</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>10</v>
       </c>
       <c r="F15">
-        <v>11.6</v>
+        <v>14.3</v>
       </c>
       <c r="G15">
-        <v>13.1</v>
+        <v>17</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15">
-        <v>11.6</v>
+        <v>14.3</v>
       </c>
       <c r="J15">
-        <v>10.7</v>
+        <v>5.8</v>
       </c>
       <c r="K15">
-        <v>94.6</v>
+        <v>57.5</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.373</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>20.83</v>
+      </c>
+      <c r="O15" t="s">
+        <v>100</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2147,53 +2125,59 @@
       <c r="Q15">
         <v>0</v>
       </c>
+      <c r="R15">
+        <v>50</v>
+      </c>
       <c r="S15">
-        <v>21.8</v>
+        <v>31.2</v>
       </c>
       <c r="T15">
-        <v>132.1</v>
+        <v>128.4</v>
       </c>
       <c r="U15">
-        <v>1020.7</v>
+        <v>1014.6</v>
       </c>
       <c r="V15">
-        <v>99.8</v>
+        <v>53.5</v>
       </c>
       <c r="W15">
-        <v>5.0999999999999996</v>
+        <v>21.7</v>
       </c>
       <c r="X15">
-        <v>23.1</v>
+        <v>97.5</v>
       </c>
       <c r="Y15">
-        <v>1.9</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="AA15">
+        <v>10</v>
       </c>
       <c r="AB15" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="AC15" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="AD15">
-        <v>0.43</v>
+        <v>0.51</v>
       </c>
       <c r="AE15" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="AF15" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="AG15" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="AH15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2201,31 +2185,31 @@
         <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D16">
-        <v>18.899999999999999</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>10.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F16">
-        <v>13.3</v>
+        <v>12.4</v>
       </c>
       <c r="G16">
-        <v>18.899999999999999</v>
+        <v>21</v>
       </c>
       <c r="H16">
-        <v>10.1</v>
+        <v>1.3</v>
       </c>
       <c r="I16">
-        <v>13.3</v>
+        <v>11.1</v>
       </c>
       <c r="J16">
-        <v>8.9</v>
+        <v>-0.3</v>
       </c>
       <c r="K16">
-        <v>76.900000000000006</v>
+        <v>48.8</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2246,52 +2230,55 @@
         <v>44.6</v>
       </c>
       <c r="S16">
-        <v>20.9</v>
+        <v>29.6</v>
       </c>
       <c r="T16">
-        <v>342.4</v>
+        <v>319.5</v>
       </c>
       <c r="U16">
-        <v>1019.1</v>
+        <v>1021</v>
       </c>
       <c r="V16">
-        <v>52.1</v>
+        <v>17.7</v>
       </c>
       <c r="W16">
-        <v>14.5</v>
+        <v>44.3</v>
       </c>
       <c r="X16">
-        <v>96.5</v>
+        <v>211.8</v>
       </c>
       <c r="Y16">
-        <v>8.4</v>
+        <v>18.3</v>
       </c>
       <c r="Z16">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="AA16">
+        <v>10</v>
       </c>
       <c r="AB16" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="AC16" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AD16">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
       <c r="AE16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="AF16" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="AG16" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2299,31 +2286,31 @@
         <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D17">
-        <v>16.399999999999999</v>
+        <v>27.1</v>
       </c>
       <c r="E17">
-        <v>7.2</v>
+        <v>8.9</v>
       </c>
       <c r="F17">
-        <v>11.3</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="G17">
-        <v>16.399999999999999</v>
+        <v>26.3</v>
       </c>
       <c r="H17">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="I17">
-        <v>11.2</v>
+        <v>16.8</v>
       </c>
       <c r="J17">
-        <v>8.3000000000000007</v>
+        <v>2.1</v>
       </c>
       <c r="K17">
-        <v>81.400000000000006</v>
+        <v>38</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2340,53 +2327,59 @@
       <c r="Q17">
         <v>0</v>
       </c>
+      <c r="R17">
+        <v>40.700000000000003</v>
+      </c>
       <c r="S17">
-        <v>8.9</v>
+        <v>36</v>
       </c>
       <c r="T17">
-        <v>67.3</v>
+        <v>320.5</v>
       </c>
       <c r="U17">
-        <v>1018.8</v>
+        <v>1022.7</v>
       </c>
       <c r="V17">
-        <v>37.200000000000003</v>
+        <v>13.7</v>
       </c>
       <c r="W17">
-        <v>12.9</v>
+        <v>46</v>
       </c>
       <c r="X17">
-        <v>105.2</v>
+        <v>218.1</v>
       </c>
       <c r="Y17">
-        <v>9.1</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="Z17">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="AA17">
+        <v>10</v>
       </c>
       <c r="AB17" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="AC17" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="AD17">
-        <v>0.48</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AE17" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="AF17" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AG17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2394,31 +2387,31 @@
         <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D18">
-        <v>22.9</v>
+        <v>30.1</v>
       </c>
       <c r="E18">
-        <v>6.5</v>
+        <v>12.1</v>
       </c>
       <c r="F18">
-        <v>14.9</v>
+        <v>22.3</v>
       </c>
       <c r="G18">
-        <v>22.9</v>
+        <v>28.3</v>
       </c>
       <c r="H18">
-        <v>6.5</v>
+        <v>12.1</v>
       </c>
       <c r="I18">
-        <v>14.8</v>
+        <v>21.7</v>
       </c>
       <c r="J18">
-        <v>5.4</v>
+        <v>-5</v>
       </c>
       <c r="K18">
-        <v>57</v>
+        <v>17.3</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2436,58 +2429,58 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>32.4</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="S18">
-        <v>21.7</v>
+        <v>25.9</v>
       </c>
       <c r="T18">
-        <v>123.4</v>
+        <v>300.10000000000002</v>
       </c>
       <c r="U18">
-        <v>1018.7</v>
+        <v>1011.8</v>
       </c>
       <c r="V18">
-        <v>23.1</v>
+        <v>18.7</v>
       </c>
       <c r="W18">
-        <v>34.5</v>
+        <v>36.1</v>
       </c>
       <c r="X18">
-        <v>188.3</v>
+        <v>306.8</v>
       </c>
       <c r="Y18">
-        <v>16.2</v>
+        <v>26.5</v>
       </c>
       <c r="Z18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AA18">
         <v>10</v>
       </c>
       <c r="AB18" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="AC18" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="AD18">
-        <v>0.5</v>
+        <v>0.68</v>
       </c>
       <c r="AE18" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="AF18" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AG18" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AH18" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2495,43 +2488,40 @@
         <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>14.1</v>
       </c>
       <c r="F19">
-        <v>14.3</v>
+        <v>23.7</v>
       </c>
       <c r="G19">
-        <v>17</v>
+        <v>29.8</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>14.1</v>
       </c>
       <c r="I19">
-        <v>14.3</v>
+        <v>22.9</v>
       </c>
       <c r="J19">
-        <v>5.8</v>
+        <v>-2.7</v>
       </c>
       <c r="K19">
-        <v>57.5</v>
+        <v>19</v>
       </c>
       <c r="L19">
-        <v>0.373</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>20.83</v>
-      </c>
-      <c r="O19" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -2540,58 +2530,58 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>50</v>
+        <v>44.6</v>
       </c>
       <c r="S19">
-        <v>31.2</v>
+        <v>23</v>
       </c>
       <c r="T19">
-        <v>128.4</v>
+        <v>311.2</v>
       </c>
       <c r="U19">
-        <v>1014.6</v>
+        <v>1014.7</v>
       </c>
       <c r="V19">
-        <v>53.5</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="W19">
-        <v>21.7</v>
+        <v>25.2</v>
       </c>
       <c r="X19">
-        <v>97.5</v>
+        <v>315.8</v>
       </c>
       <c r="Y19">
-        <v>8.1999999999999993</v>
+        <v>27.1</v>
       </c>
       <c r="Z19">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AA19">
         <v>10</v>
       </c>
       <c r="AB19" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="AC19" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AD19">
-        <v>0.51</v>
+        <v>0.74</v>
       </c>
       <c r="AE19" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="AF19" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="AG19" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2599,31 +2589,31 @@
         <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>33.6</v>
       </c>
       <c r="E20">
-        <v>4.0999999999999996</v>
+        <v>18.8</v>
       </c>
       <c r="F20">
-        <v>12.4</v>
+        <v>26.3</v>
       </c>
       <c r="G20">
-        <v>21</v>
+        <v>31.3</v>
       </c>
       <c r="H20">
-        <v>1.3</v>
+        <v>18.8</v>
       </c>
       <c r="I20">
-        <v>11.1</v>
+        <v>25.3</v>
       </c>
       <c r="J20">
-        <v>-0.3</v>
+        <v>1.2</v>
       </c>
       <c r="K20">
-        <v>48.8</v>
+        <v>20.6</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2641,43 +2631,43 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>44.6</v>
+        <v>53.6</v>
       </c>
       <c r="S20">
-        <v>29.6</v>
+        <v>38.4</v>
       </c>
       <c r="T20">
-        <v>319.5</v>
+        <v>316.3</v>
       </c>
       <c r="U20">
-        <v>1021</v>
+        <v>1012.4</v>
       </c>
       <c r="V20">
-        <v>17.7</v>
+        <v>4.8</v>
       </c>
       <c r="W20">
-        <v>44.3</v>
+        <v>21.9</v>
       </c>
       <c r="X20">
-        <v>211.8</v>
+        <v>310</v>
       </c>
       <c r="Y20">
-        <v>18.3</v>
+        <v>26.7</v>
       </c>
       <c r="Z20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AA20">
         <v>10</v>
       </c>
       <c r="AB20" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="AC20" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="AD20">
-        <v>0.53</v>
+        <v>0.79</v>
       </c>
       <c r="AE20" t="s">
         <v>37</v>
@@ -2692,7 +2682,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -2700,85 +2690,85 @@
         <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D21">
+        <v>36.9</v>
+      </c>
+      <c r="E21">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F21">
+        <v>28</v>
+      </c>
+      <c r="G21">
+        <v>34.1</v>
+      </c>
+      <c r="H21">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I21">
+        <v>26.8</v>
+      </c>
+      <c r="J21">
+        <v>0.8</v>
+      </c>
+      <c r="K21">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>42.5</v>
+      </c>
+      <c r="S21">
+        <v>43</v>
+      </c>
+      <c r="T21">
+        <v>317.60000000000002</v>
+      </c>
+      <c r="U21">
+        <v>1009.6</v>
+      </c>
+      <c r="V21">
+        <v>13.3</v>
+      </c>
+      <c r="W21">
+        <v>33.5</v>
+      </c>
+      <c r="X21">
+        <v>312.5</v>
+      </c>
+      <c r="Y21">
         <v>27.1</v>
       </c>
-      <c r="E21">
-        <v>8.9</v>
-      </c>
-      <c r="F21">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="G21">
-        <v>26.3</v>
-      </c>
-      <c r="H21">
-        <v>6.7</v>
-      </c>
-      <c r="I21">
-        <v>16.8</v>
-      </c>
-      <c r="J21">
-        <v>2.1</v>
-      </c>
-      <c r="K21">
-        <v>38</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="S21">
-        <v>36</v>
-      </c>
-      <c r="T21">
-        <v>320.5</v>
-      </c>
-      <c r="U21">
-        <v>1022.7</v>
-      </c>
-      <c r="V21">
-        <v>13.7</v>
-      </c>
-      <c r="W21">
-        <v>46</v>
-      </c>
-      <c r="X21">
-        <v>218.1</v>
-      </c>
-      <c r="Y21">
-        <v>18.899999999999999</v>
-      </c>
       <c r="Z21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA21">
         <v>10</v>
       </c>
       <c r="AB21" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="AC21" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AD21">
-        <v>0.56000000000000005</v>
+        <v>0.85</v>
       </c>
       <c r="AE21" t="s">
         <v>37</v>
@@ -2790,410 +2780,6 @@
         <v>39</v>
       </c>
       <c r="AH21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22">
-        <v>50</v>
-      </c>
-      <c r="C22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22">
-        <v>30.1</v>
-      </c>
-      <c r="E22">
-        <v>12.1</v>
-      </c>
-      <c r="F22">
-        <v>22.3</v>
-      </c>
-      <c r="G22">
-        <v>28.3</v>
-      </c>
-      <c r="H22">
-        <v>12.1</v>
-      </c>
-      <c r="I22">
-        <v>21.7</v>
-      </c>
-      <c r="J22">
-        <v>-5</v>
-      </c>
-      <c r="K22">
-        <v>17.3</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="S22">
-        <v>25.9</v>
-      </c>
-      <c r="T22">
-        <v>300.10000000000002</v>
-      </c>
-      <c r="U22">
-        <v>1011.8</v>
-      </c>
-      <c r="V22">
-        <v>18.7</v>
-      </c>
-      <c r="W22">
-        <v>36.1</v>
-      </c>
-      <c r="X22">
-        <v>306.8</v>
-      </c>
-      <c r="Y22">
-        <v>26.5</v>
-      </c>
-      <c r="Z22">
-        <v>9</v>
-      </c>
-      <c r="AA22">
-        <v>10</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD22">
-        <v>0.68</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23">
-        <v>32</v>
-      </c>
-      <c r="E23">
-        <v>14.1</v>
-      </c>
-      <c r="F23">
-        <v>23.7</v>
-      </c>
-      <c r="G23">
-        <v>29.8</v>
-      </c>
-      <c r="H23">
-        <v>14.1</v>
-      </c>
-      <c r="I23">
-        <v>22.9</v>
-      </c>
-      <c r="J23">
-        <v>-2.7</v>
-      </c>
-      <c r="K23">
-        <v>19</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>44.6</v>
-      </c>
-      <c r="S23">
-        <v>23</v>
-      </c>
-      <c r="T23">
-        <v>311.2</v>
-      </c>
-      <c r="U23">
-        <v>1014.7</v>
-      </c>
-      <c r="V23">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="W23">
-        <v>25.2</v>
-      </c>
-      <c r="X23">
-        <v>315.8</v>
-      </c>
-      <c r="Y23">
-        <v>27.1</v>
-      </c>
-      <c r="Z23">
-        <v>9</v>
-      </c>
-      <c r="AA23">
-        <v>10</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD23">
-        <v>0.74</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24">
-        <v>50</v>
-      </c>
-      <c r="C24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24">
-        <v>33.6</v>
-      </c>
-      <c r="E24">
-        <v>18.8</v>
-      </c>
-      <c r="F24">
-        <v>26.3</v>
-      </c>
-      <c r="G24">
-        <v>31.3</v>
-      </c>
-      <c r="H24">
-        <v>18.8</v>
-      </c>
-      <c r="I24">
-        <v>25.3</v>
-      </c>
-      <c r="J24">
-        <v>1.2</v>
-      </c>
-      <c r="K24">
-        <v>20.6</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>53.6</v>
-      </c>
-      <c r="S24">
-        <v>38.4</v>
-      </c>
-      <c r="T24">
-        <v>316.3</v>
-      </c>
-      <c r="U24">
-        <v>1012.4</v>
-      </c>
-      <c r="V24">
-        <v>4.8</v>
-      </c>
-      <c r="W24">
-        <v>21.9</v>
-      </c>
-      <c r="X24">
-        <v>310</v>
-      </c>
-      <c r="Y24">
-        <v>26.7</v>
-      </c>
-      <c r="Z24">
-        <v>9</v>
-      </c>
-      <c r="AA24">
-        <v>10</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD24">
-        <v>0.79</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25">
-        <v>50</v>
-      </c>
-      <c r="C25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25">
-        <v>36.9</v>
-      </c>
-      <c r="E25">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="F25">
-        <v>28</v>
-      </c>
-      <c r="G25">
-        <v>34.1</v>
-      </c>
-      <c r="H25">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="I25">
-        <v>26.8</v>
-      </c>
-      <c r="J25">
-        <v>0.8</v>
-      </c>
-      <c r="K25">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>42.5</v>
-      </c>
-      <c r="S25">
-        <v>43</v>
-      </c>
-      <c r="T25">
-        <v>317.60000000000002</v>
-      </c>
-      <c r="U25">
-        <v>1009.6</v>
-      </c>
-      <c r="V25">
-        <v>13.3</v>
-      </c>
-      <c r="W25">
-        <v>33.5</v>
-      </c>
-      <c r="X25">
-        <v>312.5</v>
-      </c>
-      <c r="Y25">
-        <v>27.1</v>
-      </c>
-      <c r="Z25">
-        <v>9</v>
-      </c>
-      <c r="AA25">
-        <v>10</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD25">
-        <v>0.85</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH25" t="s">
         <v>40</v>
       </c>
     </row>
